--- a/자료수정.xlsx
+++ b/자료수정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\leave_project_2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCCE4B0-61CC-4443-9D88-37356A484D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A135BF1-8E8E-4E5A-A461-350E2305D0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시트1!$A$1:$E$5036</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">시트2!$A$1:$F$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">시트2!$A$1:$F$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14790" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14775" uniqueCount="164">
   <si>
     <t>이름</t>
   </si>
@@ -534,6 +534,14 @@
     <t>연차(일반)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>임은현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임현은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -915,9 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5036"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -75065,7 +75071,7 @@
     </row>
     <row r="4860" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4860" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B4860" t="s">
         <v>9</v>
@@ -76153,7 +76159,7 @@
     </row>
     <row r="4933" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4933" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B4933" t="s">
         <v>10</v>
@@ -76355,7 +76361,7 @@
     </row>
     <row r="4947" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4947" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B4947" t="s">
         <v>10</v>
@@ -76956,7 +76962,7 @@
     </row>
     <row r="4988" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4988" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B4988" t="s">
         <v>9</v>
@@ -77178,7 +77184,7 @@
     </row>
     <row r="5003" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5003" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="B5003" t="s">
         <v>9</v>
@@ -77190,7 +77196,7 @@
         <v>44810</v>
       </c>
       <c r="E5003" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5004" spans="1:5" x14ac:dyDescent="0.3">
@@ -77630,7 +77636,7 @@
     </row>
     <row r="5034" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5034" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B5034" t="s">
         <v>10</v>
@@ -77682,10 +77688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -79102,7 +79108,7 @@
         <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
         <v>118</v>
@@ -79182,39 +79188,39 @@
         <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C75" t="s">
         <v>117</v>
       </c>
       <c r="D75" s="2">
-        <v>44467</v>
+        <v>44592</v>
       </c>
       <c r="E75" s="2">
         <v>44821</v>
       </c>
       <c r="F75" s="4">
-        <v>11.64</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
         <v>117</v>
       </c>
       <c r="D76" s="2">
-        <v>44592</v>
+        <v>43900</v>
       </c>
       <c r="E76" s="2">
-        <v>44821</v>
+        <v>44165</v>
       </c>
       <c r="F76" s="4">
-        <v>7.53</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -79222,19 +79228,19 @@
         <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
         <v>117</v>
       </c>
       <c r="D77" s="2">
-        <v>43900</v>
+        <v>43950</v>
       </c>
       <c r="E77" s="2">
-        <v>44165</v>
+        <v>44048</v>
       </c>
       <c r="F77" s="4">
-        <v>8.69</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -79242,19 +79248,19 @@
         <v>124</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
         <v>117</v>
       </c>
       <c r="D78" s="2">
-        <v>43950</v>
+        <v>44006</v>
       </c>
       <c r="E78" s="2">
         <v>44048</v>
       </c>
       <c r="F78" s="4">
-        <v>3.21</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -79262,59 +79268,59 @@
         <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D79" s="2">
-        <v>44006</v>
+        <v>44068</v>
       </c>
       <c r="E79" s="2">
-        <v>44048</v>
+        <v>44092</v>
       </c>
       <c r="F79" s="4">
-        <v>1.38</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D80" s="2">
-        <v>44068</v>
+        <v>40871</v>
       </c>
       <c r="E80" s="2">
-        <v>44152</v>
+        <v>41436</v>
       </c>
       <c r="F80" s="4">
-        <v>2.75</v>
+        <v>18.559999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D81" s="2">
-        <v>44068</v>
+        <v>40871</v>
       </c>
       <c r="E81" s="2">
-        <v>44092</v>
+        <v>42314</v>
       </c>
       <c r="F81" s="4">
-        <v>0.79</v>
+        <v>47.42</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -79322,39 +79328,39 @@
         <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C82" t="s">
         <v>115</v>
       </c>
       <c r="D82" s="2">
-        <v>40871</v>
+        <v>41146</v>
       </c>
       <c r="E82" s="2">
-        <v>41436</v>
+        <v>42582</v>
       </c>
       <c r="F82" s="4">
-        <v>18.559999999999999</v>
+        <v>47.16</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
         <v>115</v>
       </c>
       <c r="D83" s="2">
-        <v>40871</v>
+        <v>41330</v>
       </c>
       <c r="E83" s="2">
-        <v>42314</v>
+        <v>41425</v>
       </c>
       <c r="F83" s="4">
-        <v>47.42</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -79362,39 +79368,39 @@
         <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
         <v>115</v>
       </c>
       <c r="D84" s="2">
-        <v>41146</v>
+        <v>41421</v>
       </c>
       <c r="E84" s="2">
-        <v>42582</v>
+        <v>41851</v>
       </c>
       <c r="F84" s="4">
-        <v>47.16</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
         <v>115</v>
       </c>
       <c r="D85" s="2">
-        <v>41330</v>
+        <v>41484</v>
       </c>
       <c r="E85" s="2">
-        <v>41425</v>
+        <v>41578</v>
       </c>
       <c r="F85" s="4">
-        <v>3.12</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -79402,19 +79408,19 @@
         <v>114</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
         <v>115</v>
       </c>
       <c r="D86" s="2">
-        <v>41421</v>
+        <v>41652</v>
       </c>
       <c r="E86" s="2">
-        <v>41851</v>
+        <v>42035</v>
       </c>
       <c r="F86" s="4">
-        <v>14.14</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -79422,19 +79428,19 @@
         <v>114</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
         <v>115</v>
       </c>
       <c r="D87" s="2">
-        <v>41449</v>
+        <v>41675</v>
       </c>
       <c r="E87" s="2">
-        <v>41759</v>
+        <v>42521</v>
       </c>
       <c r="F87" s="4">
-        <v>10.19</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -79442,19 +79448,19 @@
         <v>114</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D88" s="2">
-        <v>41484</v>
+        <v>41680</v>
       </c>
       <c r="E88" s="2">
-        <v>41578</v>
+        <v>42755</v>
       </c>
       <c r="F88" s="4">
-        <v>3.09</v>
+        <v>35.32</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -79462,19 +79468,19 @@
         <v>114</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
         <v>115</v>
       </c>
       <c r="D89" s="2">
-        <v>41652</v>
+        <v>41827</v>
       </c>
       <c r="E89" s="2">
-        <v>42035</v>
+        <v>42460</v>
       </c>
       <c r="F89" s="4">
-        <v>12.59</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -79482,19 +79488,19 @@
         <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C90" t="s">
         <v>115</v>
       </c>
       <c r="D90" s="2">
-        <v>41675</v>
+        <v>41919</v>
       </c>
       <c r="E90" s="2">
-        <v>42521</v>
+        <v>42369</v>
       </c>
       <c r="F90" s="4">
-        <v>27.79</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -79502,19 +79508,19 @@
         <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C91" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D91" s="2">
-        <v>41680</v>
+        <v>41939</v>
       </c>
       <c r="E91" s="2">
-        <v>42755</v>
+        <v>42279</v>
       </c>
       <c r="F91" s="4">
-        <v>35.32</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -79522,19 +79528,19 @@
         <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C92" t="s">
         <v>115</v>
       </c>
       <c r="D92" s="2">
-        <v>41759</v>
+        <v>42451</v>
       </c>
       <c r="E92" s="2">
-        <v>42594</v>
+        <v>43951</v>
       </c>
       <c r="F92" s="4">
-        <v>27.43</v>
+        <v>49.26</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -79542,19 +79548,19 @@
         <v>114</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C93" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D93" s="2">
-        <v>41827</v>
+        <v>42411</v>
       </c>
       <c r="E93" s="2">
-        <v>42460</v>
+        <v>42776</v>
       </c>
       <c r="F93" s="4">
-        <v>20.79</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -79562,19 +79568,19 @@
         <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
         <v>117</v>
       </c>
       <c r="D94" s="2">
-        <v>41729</v>
+        <v>42585</v>
       </c>
       <c r="E94" s="2">
-        <v>42674</v>
+        <v>42776</v>
       </c>
       <c r="F94" s="4">
-        <v>31.04</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -79582,19 +79588,19 @@
         <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C95" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D95" s="2">
-        <v>41919</v>
+        <v>42531</v>
       </c>
       <c r="E95" s="2">
-        <v>42369</v>
+        <v>42794</v>
       </c>
       <c r="F95" s="4">
-        <v>14.79</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -79602,19 +79608,19 @@
         <v>114</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D96" s="2">
-        <v>41939</v>
+        <v>42702</v>
       </c>
       <c r="E96" s="2">
-        <v>42279</v>
+        <v>42811</v>
       </c>
       <c r="F96" s="4">
-        <v>11.18</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -79622,19 +79628,19 @@
         <v>114</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="C97" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D97" s="2">
-        <v>42451</v>
+        <v>42858</v>
       </c>
       <c r="E97" s="2">
-        <v>43951</v>
+        <v>42929</v>
       </c>
       <c r="F97" s="4">
-        <v>49.26</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -79642,19 +79648,19 @@
         <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D98" s="2">
-        <v>42411</v>
+        <v>43021</v>
       </c>
       <c r="E98" s="2">
-        <v>42776</v>
+        <v>43708</v>
       </c>
       <c r="F98" s="4">
-        <v>11.97</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -79662,19 +79668,19 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D99" s="2">
-        <v>42585</v>
+        <v>42506</v>
       </c>
       <c r="E99" s="2">
-        <v>42776</v>
+        <v>43769</v>
       </c>
       <c r="F99" s="4">
-        <v>6.28</v>
+        <v>41.49</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -79682,119 +79688,119 @@
         <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D100" s="2">
-        <v>42531</v>
+        <v>43741</v>
       </c>
       <c r="E100" s="2">
-        <v>42794</v>
+        <v>43973</v>
       </c>
       <c r="F100" s="4">
-        <v>8.65</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C101" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D101" s="2">
-        <v>42702</v>
+        <v>42360</v>
       </c>
       <c r="E101" s="2">
-        <v>42811</v>
+        <v>42457</v>
       </c>
       <c r="F101" s="4">
-        <v>3.58</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C102" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D102" s="2">
-        <v>42858</v>
+        <v>42404</v>
       </c>
       <c r="E102" s="2">
-        <v>42929</v>
+        <v>42443</v>
       </c>
       <c r="F102" s="4">
-        <v>2.33</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D103" s="2">
-        <v>43021</v>
+        <v>42436</v>
       </c>
       <c r="E103" s="2">
-        <v>43708</v>
+        <v>42534</v>
       </c>
       <c r="F103" s="4">
-        <v>22.59</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D104" s="2">
-        <v>42506</v>
+        <v>43167</v>
       </c>
       <c r="E104" s="2">
-        <v>43769</v>
+        <v>43281</v>
       </c>
       <c r="F104" s="4">
-        <v>41.49</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
         <v>117</v>
       </c>
       <c r="D105" s="2">
-        <v>43741</v>
+        <v>43535</v>
       </c>
       <c r="E105" s="2">
-        <v>43973</v>
+        <v>43633</v>
       </c>
       <c r="F105" s="4">
-        <v>7.61</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -79802,19 +79808,19 @@
         <v>124</v>
       </c>
       <c r="B106" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C106" t="s">
         <v>115</v>
       </c>
       <c r="D106" s="2">
-        <v>42360</v>
+        <v>43535</v>
       </c>
       <c r="E106" s="2">
-        <v>42457</v>
+        <v>43616</v>
       </c>
       <c r="F106" s="4">
-        <v>3.18</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -79822,118 +79828,18 @@
         <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C107" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D107" s="2">
-        <v>42404</v>
+        <v>43640</v>
       </c>
       <c r="E107" s="2">
-        <v>42443</v>
+        <v>43738</v>
       </c>
       <c r="F107" s="4">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>124</v>
-      </c>
-      <c r="B108" t="s">
-        <v>148</v>
-      </c>
-      <c r="C108" t="s">
-        <v>115</v>
-      </c>
-      <c r="D108" s="2">
-        <v>42436</v>
-      </c>
-      <c r="E108" s="2">
-        <v>42534</v>
-      </c>
-      <c r="F108" s="4">
-        <v>3.21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>124</v>
-      </c>
-      <c r="B109" t="s">
-        <v>149</v>
-      </c>
-      <c r="C109" t="s">
-        <v>117</v>
-      </c>
-      <c r="D109" s="2">
-        <v>43167</v>
-      </c>
-      <c r="E109" s="2">
-        <v>43281</v>
-      </c>
-      <c r="F109" s="4">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>124</v>
-      </c>
-      <c r="B110" t="s">
-        <v>150</v>
-      </c>
-      <c r="C110" t="s">
-        <v>117</v>
-      </c>
-      <c r="D110" s="2">
-        <v>43535</v>
-      </c>
-      <c r="E110" s="2">
-        <v>43633</v>
-      </c>
-      <c r="F110" s="4">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>124</v>
-      </c>
-      <c r="B111" t="s">
-        <v>151</v>
-      </c>
-      <c r="C111" t="s">
-        <v>115</v>
-      </c>
-      <c r="D111" s="2">
-        <v>43535</v>
-      </c>
-      <c r="E111" s="2">
-        <v>43616</v>
-      </c>
-      <c r="F111" s="4">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>124</v>
-      </c>
-      <c r="B112" t="s">
-        <v>152</v>
-      </c>
-      <c r="C112" t="s">
-        <v>118</v>
-      </c>
-      <c r="D112" s="2">
-        <v>43640</v>
-      </c>
-      <c r="E112" s="2">
-        <v>43738</v>
-      </c>
-      <c r="F112" s="4">
         <v>3.22</v>
       </c>
     </row>
